--- a/biology/Zoologie/Conus_norai/Conus_norai.xlsx
+++ b/biology/Zoologie/Conus_norai/Conus_norai.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus norai est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,11 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine est présente au large de la Guadeloupe.
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est endémique à la Martinique. Cette espèce vit en eau profonde et bénéficie donc d'une certaine protection naturelle. Il n'y a pas de menaces connues. Cette espèce est classée dans la catégorie "préoccupation mineure"[1].
 </t>
         </is>
       </c>
@@ -542,15 +554,92 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est endémique à la Martinique. Cette espèce vit en eau profonde et bénéficie donc d'une certaine protection naturelle. Il n'y a pas de menaces connues. Cette espèce est classée dans la catégorie "préoccupation mineure".
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Conus_norai</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_norai</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Publication originale
-L'espèce Conus norai a été décrite pour la première fois en 1992 par les malacologistes António José da Motta (d)[2] et Gabriella Raybaudi Massilia dans « Publicações Ocasionais da Sociedade Portuguesa de Malacologia »[3],[4].
-Synonymes
-Dauciconus norai (da Motta &amp; G. Raybaudi Massilia, 1992) · non accepté</t>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus norai a été décrite pour la première fois en 1992 par les malacologistes António José da Motta (d) et Gabriella Raybaudi Massilia dans « Publicações Ocasionais da Sociedade Portuguesa de Malacologia »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_norai</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_norai</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Dauciconus norai (da Motta &amp; G. Raybaudi Massilia, 1992) · non accepté</t>
         </is>
       </c>
     </row>
